--- a/Figures/figure2.xlsx
+++ b/Figures/figure2.xlsx
@@ -482,16 +482,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.43279731570641</v>
+        <v>47.99443885251737</v>
       </c>
       <c r="C2" t="n">
-        <v>89.45955656993297</v>
+        <v>89.45955656993578</v>
       </c>
       <c r="D2" t="n">
-        <v>18.50845330581682</v>
+        <v>18.508453305825</v>
       </c>
       <c r="E2" t="n">
-        <v>70.95110326411614</v>
+        <v>70.95110326411077</v>
       </c>
       <c r="F2" t="n">
         <v>82.27074538934274</v>
@@ -513,16 +513,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.04487623248204</v>
+        <v>43.00429598386303</v>
       </c>
       <c r="C3" t="n">
-        <v>105.5786320845821</v>
+        <v>105.5786320845853</v>
       </c>
       <c r="D3" t="n">
-        <v>19.18446384412142</v>
+        <v>19.18446384412695</v>
       </c>
       <c r="E3" t="n">
-        <v>86.39416824046087</v>
+        <v>86.39416824045846</v>
       </c>
       <c r="F3" t="n">
         <v>110.1934302587591</v>
@@ -544,16 +544,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.71256430563858</v>
+        <v>38.52737011504853</v>
       </c>
       <c r="C4" t="n">
-        <v>126.2368037973936</v>
+        <v>126.2368037973975</v>
       </c>
       <c r="D4" t="n">
-        <v>19.86431896595003</v>
+        <v>19.86431896594604</v>
       </c>
       <c r="E4" t="n">
-        <v>106.3724848314436</v>
+        <v>106.3724848314517</v>
       </c>
       <c r="F4" t="n">
         <v>122.9193442789418</v>
@@ -575,16 +575,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.19696787817</v>
+        <v>22.0312137538322</v>
       </c>
       <c r="C5" t="n">
-        <v>30.08627220953613</v>
+        <v>30.08627220953744</v>
       </c>
       <c r="D5" t="n">
-        <v>5.169816518604858</v>
+        <v>5.169816518605618</v>
       </c>
       <c r="E5" t="n">
-        <v>24.91645569093123</v>
+        <v>24.91645569093177</v>
       </c>
       <c r="F5" t="n">
         <v>43.6930097412034</v>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.787959424426747</v>
+        <v>10.71154785150647</v>
       </c>
       <c r="C6" t="n">
-        <v>27.93273264312156</v>
+        <v>27.93273264312214</v>
       </c>
       <c r="D6" t="n">
-        <v>3.691071655728231</v>
+        <v>3.691071655728495</v>
       </c>
       <c r="E6" t="n">
-        <v>24.24166098739326</v>
+        <v>24.24166098739359</v>
       </c>
       <c r="F6" t="n">
         <v>35.36247482510823</v>
@@ -637,16 +637,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.11832257702652</v>
+        <v>73.49010240602721</v>
       </c>
       <c r="C7" t="n">
-        <v>137.7788224466013</v>
+        <v>137.778822446604</v>
       </c>
       <c r="D7" t="n">
-        <v>20.57909690042224</v>
+        <v>20.57909690044887</v>
       </c>
       <c r="E7" t="n">
-        <v>117.1997255461788</v>
+        <v>117.199725546155</v>
       </c>
       <c r="F7" t="n">
         <v>157.9025835906781</v>
@@ -668,16 +668,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39.43271901883495</v>
+        <v>38.04800156230241</v>
       </c>
       <c r="C8" t="n">
-        <v>99.34334510048461</v>
+        <v>99.34334510048848</v>
       </c>
       <c r="D8" t="n">
-        <v>25.19954160563842</v>
+        <v>25.19954160564174</v>
       </c>
       <c r="E8" t="n">
-        <v>74.14380349484621</v>
+        <v>74.14380349484685</v>
       </c>
       <c r="F8" t="n">
         <v>55.29290953857419</v>
@@ -699,16 +699,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.91268701559079</v>
+        <v>13.13984742555837</v>
       </c>
       <c r="C9" t="n">
-        <v>23.47635366240315</v>
+        <v>23.47635366240364</v>
       </c>
       <c r="D9" t="n">
-        <v>7.1636896269639</v>
+        <v>7.163689626961417</v>
       </c>
       <c r="E9" t="n">
-        <v>16.31266403543921</v>
+        <v>16.31266403544219</v>
       </c>
       <c r="F9" t="n">
         <v>46.3215858763002</v>
@@ -730,16 +730,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.21657178611318</v>
+        <v>33.67628658821203</v>
       </c>
       <c r="C10" t="n">
-        <v>69.89333986122433</v>
+        <v>69.89333986122671</v>
       </c>
       <c r="D10" t="n">
-        <v>12.30890115368588</v>
+        <v>12.30890115368658</v>
       </c>
       <c r="E10" t="n">
-        <v>57.58443870753851</v>
+        <v>57.58443870754013</v>
       </c>
       <c r="F10" t="n">
         <v>125.7954075210475</v>
@@ -761,16 +761,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.66589741986661</v>
+        <v>34.67685765838427</v>
       </c>
       <c r="C11" t="n">
-        <v>56.55301044801593</v>
+        <v>56.55301044801777</v>
       </c>
       <c r="D11" t="n">
-        <v>11.50492141393953</v>
+        <v>11.50492141394462</v>
       </c>
       <c r="E11" t="n">
-        <v>45.04808903407642</v>
+        <v>45.04808903407307</v>
       </c>
       <c r="F11" t="n">
         <v>74.66395291945831</v>
@@ -792,16 +792,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>46.46050476962628</v>
+        <v>45.27559719715208</v>
       </c>
       <c r="C12" t="n">
-        <v>95.65478939339783</v>
+        <v>95.65478939340061</v>
       </c>
       <c r="D12" t="n">
-        <v>17.43868450181393</v>
+        <v>17.43868450181956</v>
       </c>
       <c r="E12" t="n">
-        <v>78.21610489158387</v>
+        <v>78.21610489158107</v>
       </c>
       <c r="F12" t="n">
         <v>89.42762627788728</v>
@@ -823,16 +823,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.43291549452402</v>
+        <v>47.53467333448586</v>
       </c>
       <c r="C13" t="n">
-        <v>119.8294371238209</v>
+        <v>119.8294371238245</v>
       </c>
       <c r="D13" t="n">
-        <v>23.27318111154124</v>
+        <v>23.27318111152513</v>
       </c>
       <c r="E13" t="n">
-        <v>96.55625601227948</v>
+        <v>96.5562560122993</v>
       </c>
       <c r="F13" t="n">
         <v>101.2596633600813</v>
@@ -854,16 +854,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.53289129954393</v>
+        <v>35.62198873794238</v>
       </c>
       <c r="C14" t="n">
-        <v>55.34255172678241</v>
+        <v>55.34255172678453</v>
       </c>
       <c r="D14" t="n">
-        <v>10.32615407655176</v>
+        <v>10.32615407656282</v>
       </c>
       <c r="E14" t="n">
-        <v>45.01639765023059</v>
+        <v>45.01639765022158</v>
       </c>
       <c r="F14" t="n">
         <v>58.76511198073018</v>
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.58253959018432</v>
+        <v>30.89092109790542</v>
       </c>
       <c r="C15" t="n">
-        <v>49.82780632669755</v>
+        <v>49.82780632669913</v>
       </c>
       <c r="D15" t="n">
-        <v>10.80688710163888</v>
+        <v>10.80688710164631</v>
       </c>
       <c r="E15" t="n">
-        <v>39.02091922505849</v>
+        <v>39.02091922505266</v>
       </c>
       <c r="F15" t="n">
         <v>50.81879515279729</v>
@@ -916,16 +916,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.37484641586326</v>
+        <v>46.97694702763098</v>
       </c>
       <c r="C16" t="n">
-        <v>121.9939643478436</v>
+        <v>121.9939643478477</v>
       </c>
       <c r="D16" t="n">
-        <v>23.1846553584332</v>
+        <v>23.18465535842723</v>
       </c>
       <c r="E16" t="n">
-        <v>98.80930898940991</v>
+        <v>98.80930898942003</v>
       </c>
       <c r="F16" t="n">
         <v>153.1225791118943</v>
@@ -947,16 +947,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>32.31458979984492</v>
+        <v>32.69564740789706</v>
       </c>
       <c r="C17" t="n">
-        <v>74.14205754793196</v>
+        <v>74.14205754793427</v>
       </c>
       <c r="D17" t="n">
-        <v>15.70790433039739</v>
+        <v>15.70790433040031</v>
       </c>
       <c r="E17" t="n">
-        <v>58.4341532175346</v>
+        <v>58.43415321753402</v>
       </c>
       <c r="F17" t="n">
         <v>62.34100467706099</v>
@@ -978,16 +978,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>37.52659227681708</v>
+        <v>35.38372528075408</v>
       </c>
       <c r="C18" t="n">
-        <v>69.48005373582684</v>
+        <v>69.48005373582909</v>
       </c>
       <c r="D18" t="n">
-        <v>12.24864212970265</v>
+        <v>12.24864212971865</v>
       </c>
       <c r="E18" t="n">
-        <v>57.23141160612417</v>
+        <v>57.23141160611062</v>
       </c>
       <c r="F18" t="n">
         <v>46.40124040428881</v>
@@ -1009,16 +1009,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.73879779267483</v>
+        <v>28.50233079407887</v>
       </c>
       <c r="C19" t="n">
-        <v>124.8302791164491</v>
+        <v>124.8302791164509</v>
       </c>
       <c r="D19" t="n">
-        <v>16.2736732344225</v>
+        <v>16.27367323443209</v>
       </c>
       <c r="E19" t="n">
-        <v>108.5566058820265</v>
+        <v>108.5566058820187</v>
       </c>
       <c r="F19" t="n">
         <v>133.5575567139433</v>
@@ -1040,16 +1040,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.86560270759156</v>
+        <v>30.79907578112522</v>
       </c>
       <c r="C20" t="n">
-        <v>39.24998239172368</v>
+        <v>39.24998239172575</v>
       </c>
       <c r="D20" t="n">
-        <v>6.734351686517622</v>
+        <v>6.734351686518433</v>
       </c>
       <c r="E20" t="n">
-        <v>32.51563070520604</v>
+        <v>32.51563070520736</v>
       </c>
       <c r="F20" t="n">
         <v>47.32630125384533</v>
@@ -1071,16 +1071,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>39.57303217239122</v>
+        <v>43.18322830662537</v>
       </c>
       <c r="C21" t="n">
-        <v>40.27660285119508</v>
+        <v>40.27660285119649</v>
       </c>
       <c r="D21" t="n">
-        <v>6.283178926528303</v>
+        <v>6.283178926534119</v>
       </c>
       <c r="E21" t="n">
-        <v>33.99342392466675</v>
+        <v>33.99342392466239</v>
       </c>
       <c r="F21" t="n">
         <v>52.55653951416361</v>
@@ -1102,16 +1102,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.19304885640079</v>
+        <v>13.93478200883266</v>
       </c>
       <c r="C22" t="n">
-        <v>11.40152979038324</v>
+        <v>11.40152979038344</v>
       </c>
       <c r="D22" t="n">
-        <v>2.036011405930872</v>
+        <v>2.036011405933333</v>
       </c>
       <c r="E22" t="n">
-        <v>9.365518384452415</v>
+        <v>9.365518384450143</v>
       </c>
       <c r="F22" t="n">
         <v>15.93834973531287</v>
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>36.72946157375991</v>
+        <v>39.10391841843337</v>
       </c>
       <c r="C23" t="n">
-        <v>82.84525216332656</v>
+        <v>82.84525216332923</v>
       </c>
       <c r="D23" t="n">
-        <v>17.71459439340962</v>
+        <v>17.71459439340935</v>
       </c>
       <c r="E23" t="n">
-        <v>65.13065776991708</v>
+        <v>65.13065776991985</v>
       </c>
       <c r="F23" t="n">
         <v>107.2716188076251</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.96870535772151</v>
+        <v>8.895410527335777</v>
       </c>
       <c r="C24" t="n">
-        <v>7.234749019796404</v>
+        <v>7.234749019796491</v>
       </c>
       <c r="D24" t="n">
-        <v>1.499180814868721</v>
+        <v>1.499180814868446</v>
       </c>
       <c r="E24" t="n">
-        <v>5.735568204927703</v>
+        <v>5.735568204928065</v>
       </c>
       <c r="F24" t="n">
         <v>12.71350928174138</v>
@@ -1195,16 +1195,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.85270264870566</v>
+        <v>32.15078311540933</v>
       </c>
       <c r="C25" t="n">
-        <v>65.18475180228808</v>
+        <v>65.18475180229002</v>
       </c>
       <c r="D25" t="n">
-        <v>13.87850706009879</v>
+        <v>13.87850706010328</v>
       </c>
       <c r="E25" t="n">
-        <v>51.30624474218936</v>
+        <v>51.30624474218673</v>
       </c>
       <c r="F25" t="n">
         <v>54.51581515291586</v>
@@ -1226,16 +1226,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>42.89300946319827</v>
+        <v>29.49354862740359</v>
       </c>
       <c r="C26" t="n">
-        <v>71.34631813926181</v>
+        <v>71.34631813926337</v>
       </c>
       <c r="D26" t="n">
-        <v>17.05406743345282</v>
+        <v>17.05406743345007</v>
       </c>
       <c r="E26" t="n">
-        <v>54.29225070580905</v>
+        <v>54.29225070581326</v>
       </c>
       <c r="F26" t="n">
         <v>77.74967686413991</v>
@@ -1257,16 +1257,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.91802934734239</v>
+        <v>23.41695409700751</v>
       </c>
       <c r="C27" t="n">
-        <v>76.66161736135516</v>
+        <v>76.66161736134227</v>
       </c>
       <c r="D27" t="n">
-        <v>20.31908169508272</v>
+        <v>20.31908169508977</v>
       </c>
       <c r="E27" t="n">
-        <v>56.34253566627244</v>
+        <v>56.34253566625249</v>
       </c>
       <c r="F27" t="n">
         <v>132.6284859211258</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50.82836562320359</v>
+        <v>54.79078757173561</v>
       </c>
       <c r="C28" t="n">
-        <v>58.37171859861886</v>
+        <v>58.3717185986206</v>
       </c>
       <c r="D28" t="n">
-        <v>7.17911911080576</v>
+        <v>7.179119110806737</v>
       </c>
       <c r="E28" t="n">
-        <v>51.19259948781293</v>
+        <v>51.19259948781386</v>
       </c>
       <c r="F28" t="n">
         <v>69.60631934810463</v>
@@ -1319,16 +1319,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.22924966802908</v>
+        <v>51.65157223068612</v>
       </c>
       <c r="C29" t="n">
-        <v>196.9667418431438</v>
+        <v>196.96674184315</v>
       </c>
       <c r="D29" t="n">
-        <v>25.12650406212226</v>
+        <v>25.12650406213757</v>
       </c>
       <c r="E29" t="n">
-        <v>171.8402377810215</v>
+        <v>171.8402377810123</v>
       </c>
       <c r="F29" t="n">
         <v>215.8041323296398</v>
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>32.6487568734262</v>
+        <v>33.23192080432319</v>
       </c>
       <c r="C30" t="n">
-        <v>68.997267353646</v>
+        <v>68.99726735364825</v>
       </c>
       <c r="D30" t="n">
-        <v>13.27110586747804</v>
+        <v>13.27110586746939</v>
       </c>
       <c r="E30" t="n">
-        <v>55.72616148616804</v>
+        <v>55.72616148617894</v>
       </c>
       <c r="F30" t="n">
         <v>75.05850510782473</v>
       </c>
       <c r="G30" t="n">
-        <v>70.68751883216601</v>
+        <v>70.68751883216548</v>
       </c>
       <c r="H30" t="n">
         <v>28504.76361736477</v>
@@ -1381,16 +1381,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10.16817290676628</v>
+        <v>10.13161505062967</v>
       </c>
       <c r="C31" t="n">
-        <v>71.14167134138923</v>
+        <v>71.14167134139169</v>
       </c>
       <c r="D31" t="n">
-        <v>8.33886206377627</v>
+        <v>8.338862063791087</v>
       </c>
       <c r="E31" t="n">
-        <v>62.80280927761316</v>
+        <v>62.80280927760071</v>
       </c>
       <c r="F31" t="n">
         <v>42.46086668582959</v>
@@ -1412,19 +1412,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13.7197618502354</v>
+        <v>13.80881345161295</v>
       </c>
       <c r="C32" t="n">
-        <v>20.08465027070241</v>
+        <v>20.08465027070292</v>
       </c>
       <c r="D32" t="n">
-        <v>4.489027332164996</v>
+        <v>4.489027332171283</v>
       </c>
       <c r="E32" t="n">
-        <v>15.59562293853745</v>
+        <v>15.59562293853169</v>
       </c>
       <c r="F32" t="n">
-        <v>25.36330197609836</v>
+        <v>25.36330197609755</v>
       </c>
       <c r="G32" t="n">
         <v>24.96728382797249</v>
@@ -1443,19 +1443,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>32.15465152692779</v>
+        <v>32.36077714132275</v>
       </c>
       <c r="C33" t="n">
-        <v>107.883839674381</v>
+        <v>107.8838396743842</v>
       </c>
       <c r="D33" t="n">
-        <v>18.82406307981119</v>
+        <v>18.82406307980375</v>
       </c>
       <c r="E33" t="n">
-        <v>89.0597765945696</v>
+        <v>89.05977659458009</v>
       </c>
       <c r="F33" t="n">
-        <v>135.2302618580934</v>
+        <v>135.2302618580935</v>
       </c>
       <c r="G33" t="n">
         <v>118.9213862452843</v>
@@ -1474,16 +1474,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>38.89332172325483</v>
+        <v>38.99438134435925</v>
       </c>
       <c r="C34" t="n">
-        <v>151.9907538482459</v>
+        <v>151.9907538482498</v>
       </c>
       <c r="D34" t="n">
-        <v>26.25849816334294</v>
+        <v>26.25849816336722</v>
       </c>
       <c r="E34" t="n">
-        <v>125.7322556849033</v>
+        <v>125.7322556848826</v>
       </c>
       <c r="F34" t="n">
         <v>171.3482169372099</v>
@@ -1505,16 +1505,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24.73565873263495</v>
+        <v>24.92726987785904</v>
       </c>
       <c r="C35" t="n">
-        <v>44.07745611946554</v>
+        <v>44.07745611946676</v>
       </c>
       <c r="D35" t="n">
-        <v>4.890691833539833</v>
+        <v>4.8906918335445</v>
       </c>
       <c r="E35" t="n">
-        <v>39.18676428592581</v>
+        <v>39.18676428592234</v>
       </c>
       <c r="F35" t="n">
         <v>49.69115855116296</v>
@@ -1536,16 +1536,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>22.5956732671495</v>
+        <v>22.5815483367999</v>
       </c>
       <c r="C36" t="n">
-        <v>50.12335630247469</v>
+        <v>50.123356302476</v>
       </c>
       <c r="D36" t="n">
-        <v>9.874081691961365</v>
+        <v>9.874081691963982</v>
       </c>
       <c r="E36" t="n">
-        <v>40.24927461051311</v>
+        <v>40.2492746105118</v>
       </c>
       <c r="F36" t="n">
         <v>48.73159567727308</v>
@@ -1567,19 +1567,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>25.8381775405042</v>
+        <v>27.89941322511557</v>
       </c>
       <c r="C37" t="n">
-        <v>20.99807058750642</v>
+        <v>20.99807058750797</v>
       </c>
       <c r="D37" t="n">
-        <v>3.731273854346786</v>
+        <v>3.731273854353825</v>
       </c>
       <c r="E37" t="n">
-        <v>17.26679673315962</v>
+        <v>17.26679673315413</v>
       </c>
       <c r="F37" t="n">
-        <v>23.07387553757038</v>
+        <v>23.07387553756987</v>
       </c>
       <c r="G37" t="n">
         <v>26.00363704249742</v>
@@ -1598,16 +1598,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>43.00739451205511</v>
+        <v>49.13405460207678</v>
       </c>
       <c r="C38" t="n">
-        <v>46.85031021693734</v>
+        <v>46.85031021693825</v>
       </c>
       <c r="D38" t="n">
-        <v>5.60752394778839</v>
+        <v>5.6075239477809</v>
       </c>
       <c r="E38" t="n">
-        <v>41.2427862691491</v>
+        <v>41.24278626915751</v>
       </c>
       <c r="F38" t="n">
         <v>92.39733848704232</v>
@@ -1629,16 +1629,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>40.91166406815541</v>
+        <v>41.05150043132295</v>
       </c>
       <c r="C39" t="n">
-        <v>92.75111705271044</v>
+        <v>92.75111705271379</v>
       </c>
       <c r="D39" t="n">
-        <v>16.78008528870938</v>
+        <v>16.7800852887136</v>
       </c>
       <c r="E39" t="n">
-        <v>75.97103176400093</v>
+        <v>75.97103176400019</v>
       </c>
       <c r="F39" t="n">
         <v>99.91447766404251</v>
@@ -1660,19 +1660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>37.37178178511681</v>
+        <v>38.98198825898191</v>
       </c>
       <c r="C40" t="n">
-        <v>53.21516247643383</v>
+        <v>53.21516247643582</v>
       </c>
       <c r="D40" t="n">
-        <v>10.65632961465951</v>
+        <v>10.65632961466042</v>
       </c>
       <c r="E40" t="n">
-        <v>42.55883286177426</v>
+        <v>42.55883286177546</v>
       </c>
       <c r="F40" t="n">
-        <v>57.32696857698429</v>
+        <v>57.32696857698478</v>
       </c>
       <c r="G40" t="n">
         <v>58.76830522993478</v>
@@ -1691,16 +1691,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.93530373277018</v>
+        <v>21.53316810965194</v>
       </c>
       <c r="C41" t="n">
-        <v>48.93494326358628</v>
+        <v>48.93494326358779</v>
       </c>
       <c r="D41" t="n">
-        <v>7.521858064214809</v>
+        <v>7.521858064216178</v>
       </c>
       <c r="E41" t="n">
-        <v>41.4130851993712</v>
+        <v>41.41308519937129</v>
       </c>
       <c r="F41" t="n">
         <v>55.73371743432904</v>
@@ -1722,16 +1722,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>12.07331776532068</v>
+        <v>11.42757655397756</v>
       </c>
       <c r="C42" t="n">
-        <v>32.74568226853008</v>
+        <v>32.74568226853118</v>
       </c>
       <c r="D42" t="n">
-        <v>4.105690768786727</v>
+        <v>4.105690768775577</v>
       </c>
       <c r="E42" t="n">
-        <v>28.63999149974347</v>
+        <v>28.63999149975572</v>
       </c>
       <c r="F42" t="n">
         <v>34.72384452368166</v>
@@ -1753,22 +1753,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.77771078556197</v>
+        <v>23.01598922829499</v>
       </c>
       <c r="C43" t="n">
-        <v>70.66149189660803</v>
+        <v>70.66149189660931</v>
       </c>
       <c r="D43" t="n">
-        <v>7.681560900138359</v>
+        <v>7.681560900135334</v>
       </c>
       <c r="E43" t="n">
-        <v>62.97993099646985</v>
+        <v>62.97993099647422</v>
       </c>
       <c r="F43" t="n">
         <v>130.6023846908731</v>
       </c>
       <c r="G43" t="n">
-        <v>85.92396704511543</v>
+        <v>85.92396704511548</v>
       </c>
       <c r="H43" t="n">
         <v>47222.94185739049</v>
@@ -1784,19 +1784,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>88.39125589641989</v>
+        <v>87.1553790019391</v>
       </c>
       <c r="C44" t="n">
-        <v>116.1648819043989</v>
+        <v>116.1648819044016</v>
       </c>
       <c r="D44" t="n">
-        <v>23.08395505064668</v>
+        <v>23.08395505065983</v>
       </c>
       <c r="E44" t="n">
-        <v>93.08092685375196</v>
+        <v>93.08092685374159</v>
       </c>
       <c r="F44" t="n">
-        <v>104.1650559747245</v>
+        <v>104.1650559747276</v>
       </c>
       <c r="G44" t="n">
         <v>123.4098760896962</v>
@@ -1815,16 +1815,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>9.229709392078739</v>
+        <v>9.429887758464357</v>
       </c>
       <c r="C45" t="n">
-        <v>14.3084802119691</v>
+        <v>14.30848021196943</v>
       </c>
       <c r="D45" t="n">
-        <v>3.228969748133235</v>
+        <v>3.228969748135051</v>
       </c>
       <c r="E45" t="n">
-        <v>11.07951046383583</v>
+        <v>11.07951046383434</v>
       </c>
       <c r="F45" t="n">
         <v>15.93622608705269</v>
@@ -1846,16 +1846,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>17.99286418154274</v>
+        <v>20.68266150165245</v>
       </c>
       <c r="C46" t="n">
-        <v>28.20536135887798</v>
+        <v>28.20536135887886</v>
       </c>
       <c r="D46" t="n">
-        <v>1.971881552764605</v>
+        <v>1.971881552763135</v>
       </c>
       <c r="E46" t="n">
-        <v>26.23347980611338</v>
+        <v>26.23347980611576</v>
       </c>
       <c r="F46" t="n">
         <v>35.10597607345322</v>
@@ -1877,16 +1877,16 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>11.62005925785035</v>
+        <v>12.29824065136684</v>
       </c>
       <c r="C47" t="n">
-        <v>4.97151557462272</v>
+        <v>4.971515574622869</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8886826245006965</v>
+        <v>0.8886826245007255</v>
       </c>
       <c r="E47" t="n">
-        <v>4.082832950122036</v>
+        <v>4.082832950122159</v>
       </c>
       <c r="F47" t="n">
         <v>4.172362247065394</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>13.69871604988142</v>
+        <v>13.03741085203557</v>
       </c>
       <c r="C48" t="n">
-        <v>28.37055141351172</v>
+        <v>28.37055141351259</v>
       </c>
       <c r="D48" t="n">
-        <v>4.441164344526043</v>
+        <v>4.441164344526591</v>
       </c>
       <c r="E48" t="n">
-        <v>23.92938706898564</v>
+        <v>23.92938706898602</v>
       </c>
       <c r="F48" t="n">
-        <v>25.12882056895622</v>
+        <v>25.12882056895619</v>
       </c>
       <c r="G48" t="n">
         <v>31.46007360573953</v>
@@ -1939,16 +1939,16 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>21.81321654745771</v>
+        <v>22.09889380777077</v>
       </c>
       <c r="C49" t="n">
-        <v>36.96450900202868</v>
+        <v>36.96450900202955</v>
       </c>
       <c r="D49" t="n">
-        <v>7.487232119634061</v>
+        <v>7.487232119632741</v>
       </c>
       <c r="E49" t="n">
-        <v>29.4772768823946</v>
+        <v>29.4772768823968</v>
       </c>
       <c r="F49" t="n">
         <v>57.26832340582077</v>
@@ -1970,16 +1970,16 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>22.58808661304414</v>
+        <v>20.74357099544427</v>
       </c>
       <c r="C50" t="n">
-        <v>27.06981267115089</v>
+        <v>27.06981267115147</v>
       </c>
       <c r="D50" t="n">
-        <v>3.612902888005604</v>
+        <v>3.612902888003783</v>
       </c>
       <c r="E50" t="n">
-        <v>23.45690978314521</v>
+        <v>23.45690978314757</v>
       </c>
       <c r="F50" t="n">
         <v>38.20150098229014</v>

--- a/Figures/figure2.xlsx
+++ b/Figures/figure2.xlsx
@@ -485,10 +485,10 @@
         <v>47.99443885251737</v>
       </c>
       <c r="C2" t="n">
-        <v>89.45955656993578</v>
+        <v>81.09106943735266</v>
       </c>
       <c r="D2" t="n">
-        <v>18.508453305825</v>
+        <v>10.13996617324147</v>
       </c>
       <c r="E2" t="n">
         <v>70.95110326411077</v>
@@ -516,10 +516,10 @@
         <v>43.00429598386303</v>
       </c>
       <c r="C3" t="n">
-        <v>105.5786320845853</v>
+        <v>98.4204690087752</v>
       </c>
       <c r="D3" t="n">
-        <v>19.18446384412695</v>
+        <v>12.02630076831704</v>
       </c>
       <c r="E3" t="n">
         <v>86.39416824045846</v>
@@ -547,10 +547,10 @@
         <v>38.52737011504853</v>
       </c>
       <c r="C4" t="n">
-        <v>126.2368037973975</v>
+        <v>119.4429166398555</v>
       </c>
       <c r="D4" t="n">
-        <v>19.86431896594604</v>
+        <v>13.07043180840359</v>
       </c>
       <c r="E4" t="n">
         <v>106.3724848314517</v>
@@ -578,10 +578,10 @@
         <v>22.0312137538322</v>
       </c>
       <c r="C5" t="n">
-        <v>30.08627220953744</v>
+        <v>27.89256489766104</v>
       </c>
       <c r="D5" t="n">
-        <v>5.169816518605618</v>
+        <v>2.976109206729212</v>
       </c>
       <c r="E5" t="n">
         <v>24.91645569093177</v>
@@ -609,10 +609,10 @@
         <v>10.71154785150647</v>
       </c>
       <c r="C6" t="n">
-        <v>27.93273264312214</v>
+        <v>25.87783081391243</v>
       </c>
       <c r="D6" t="n">
-        <v>3.691071655728495</v>
+        <v>1.636169826518793</v>
       </c>
       <c r="E6" t="n">
         <v>24.24166098739359</v>
@@ -640,10 +640,10 @@
         <v>73.49010240602721</v>
       </c>
       <c r="C7" t="n">
-        <v>137.778822446604</v>
+        <v>181.8035109186626</v>
       </c>
       <c r="D7" t="n">
-        <v>20.57909690044887</v>
+        <v>64.6037853725084</v>
       </c>
       <c r="E7" t="n">
         <v>117.199725546155</v>
@@ -671,10 +671,10 @@
         <v>38.04800156230241</v>
       </c>
       <c r="C8" t="n">
-        <v>99.34334510048848</v>
+        <v>91.80975688474867</v>
       </c>
       <c r="D8" t="n">
-        <v>25.19954160564174</v>
+        <v>17.66595338990206</v>
       </c>
       <c r="E8" t="n">
         <v>74.14380349484685</v>
@@ -702,10 +702,10 @@
         <v>13.13984742555837</v>
       </c>
       <c r="C9" t="n">
-        <v>23.47635366240364</v>
+        <v>20.52188610557545</v>
       </c>
       <c r="D9" t="n">
-        <v>7.163689626961417</v>
+        <v>4.209222070133255</v>
       </c>
       <c r="E9" t="n">
         <v>16.31266403544219</v>
@@ -733,10 +733,10 @@
         <v>33.67628658821203</v>
       </c>
       <c r="C10" t="n">
-        <v>69.89333986122671</v>
+        <v>62.86138988194384</v>
       </c>
       <c r="D10" t="n">
-        <v>12.30890115368658</v>
+        <v>5.276951174403877</v>
       </c>
       <c r="E10" t="n">
         <v>57.58443870754013</v>
@@ -764,10 +764,10 @@
         <v>34.67685765838427</v>
       </c>
       <c r="C11" t="n">
-        <v>56.55301044801777</v>
+        <v>53.66290083119358</v>
       </c>
       <c r="D11" t="n">
-        <v>11.50492141394462</v>
+        <v>8.614811797120455</v>
       </c>
       <c r="E11" t="n">
         <v>45.04808903407307</v>
@@ -795,10 +795,10 @@
         <v>45.27559719715208</v>
       </c>
       <c r="C12" t="n">
-        <v>95.65478939340061</v>
+        <v>88.37959858545823</v>
       </c>
       <c r="D12" t="n">
-        <v>17.43868450181956</v>
+        <v>10.16349369387679</v>
       </c>
       <c r="E12" t="n">
         <v>78.21610489158107</v>
@@ -826,10 +826,10 @@
         <v>47.53467333448586</v>
       </c>
       <c r="C13" t="n">
-        <v>119.8294371238245</v>
+        <v>109.6919803657956</v>
       </c>
       <c r="D13" t="n">
-        <v>23.27318111152513</v>
+        <v>13.13572435349594</v>
       </c>
       <c r="E13" t="n">
         <v>96.5562560122993</v>
@@ -857,10 +857,10 @@
         <v>35.62198873794238</v>
       </c>
       <c r="C14" t="n">
-        <v>55.34255172678453</v>
+        <v>51.74872726013162</v>
       </c>
       <c r="D14" t="n">
-        <v>10.32615407656282</v>
+        <v>6.732329609910158</v>
       </c>
       <c r="E14" t="n">
         <v>45.01639765022158</v>
@@ -888,10 +888,10 @@
         <v>30.89092109790542</v>
       </c>
       <c r="C15" t="n">
-        <v>49.82780632669913</v>
+        <v>44.88764127486557</v>
       </c>
       <c r="D15" t="n">
-        <v>10.80688710164631</v>
+        <v>5.866722049813027</v>
       </c>
       <c r="E15" t="n">
         <v>39.02091922505266</v>
@@ -919,10 +919,10 @@
         <v>46.97694702763098</v>
       </c>
       <c r="C16" t="n">
-        <v>121.9939643478477</v>
+        <v>114.9389027574633</v>
       </c>
       <c r="D16" t="n">
-        <v>23.18465535842723</v>
+        <v>16.12959376804319</v>
       </c>
       <c r="E16" t="n">
         <v>98.80930898942003</v>
@@ -950,10 +950,10 @@
         <v>32.69564740789706</v>
       </c>
       <c r="C17" t="n">
-        <v>74.14205754793427</v>
+        <v>66.47039923590675</v>
       </c>
       <c r="D17" t="n">
-        <v>15.70790433040031</v>
+        <v>8.036246018373033</v>
       </c>
       <c r="E17" t="n">
         <v>58.43415321753402</v>
@@ -981,10 +981,10 @@
         <v>35.38372528075408</v>
       </c>
       <c r="C18" t="n">
-        <v>69.48005373582909</v>
+        <v>64.98130380093853</v>
       </c>
       <c r="D18" t="n">
-        <v>12.24864212971865</v>
+        <v>7.749892194827897</v>
       </c>
       <c r="E18" t="n">
         <v>57.23141160611062</v>
@@ -1012,10 +1012,10 @@
         <v>28.50233079407887</v>
       </c>
       <c r="C19" t="n">
-        <v>124.8302791164509</v>
+        <v>115.5336202580731</v>
       </c>
       <c r="D19" t="n">
-        <v>16.27367323443209</v>
+        <v>6.977014376054265</v>
       </c>
       <c r="E19" t="n">
         <v>108.5566058820187</v>
@@ -1043,10 +1043,10 @@
         <v>30.79907578112522</v>
       </c>
       <c r="C20" t="n">
-        <v>39.24998239172575</v>
+        <v>36.64975370606664</v>
       </c>
       <c r="D20" t="n">
-        <v>6.734351686518433</v>
+        <v>4.13412300085932</v>
       </c>
       <c r="E20" t="n">
         <v>32.51563070520736</v>
@@ -1074,10 +1074,10 @@
         <v>43.18322830662537</v>
       </c>
       <c r="C21" t="n">
-        <v>40.27660285119649</v>
+        <v>39.70211150743625</v>
       </c>
       <c r="D21" t="n">
-        <v>6.283178926534119</v>
+        <v>5.708687582773737</v>
       </c>
       <c r="E21" t="n">
         <v>33.99342392466239</v>
@@ -1105,10 +1105,10 @@
         <v>13.93478200883266</v>
       </c>
       <c r="C22" t="n">
-        <v>11.40152979038344</v>
+        <v>10.41642217933556</v>
       </c>
       <c r="D22" t="n">
-        <v>2.036011405933333</v>
+        <v>1.05090379488537</v>
       </c>
       <c r="E22" t="n">
         <v>9.365518384450143</v>
@@ -1136,10 +1136,10 @@
         <v>39.10391841843337</v>
       </c>
       <c r="C23" t="n">
-        <v>82.84525216332923</v>
+        <v>73.59300222877866</v>
       </c>
       <c r="D23" t="n">
-        <v>17.71459439340935</v>
+        <v>8.462344458858782</v>
       </c>
       <c r="E23" t="n">
         <v>65.13065776991985</v>
@@ -1167,10 +1167,10 @@
         <v>8.895410527335777</v>
       </c>
       <c r="C24" t="n">
-        <v>7.234749019796491</v>
+        <v>6.272130783095512</v>
       </c>
       <c r="D24" t="n">
-        <v>1.499180814868446</v>
+        <v>0.5365625781674238</v>
       </c>
       <c r="E24" t="n">
         <v>5.735568204928065</v>
@@ -1198,10 +1198,10 @@
         <v>32.15078311540933</v>
       </c>
       <c r="C25" t="n">
-        <v>65.18475180229002</v>
+        <v>58.66873979331869</v>
       </c>
       <c r="D25" t="n">
-        <v>13.87850706010328</v>
+        <v>7.362495051132077</v>
       </c>
       <c r="E25" t="n">
         <v>51.30624474218673</v>
@@ -1229,10 +1229,10 @@
         <v>29.49354862740359</v>
       </c>
       <c r="C26" t="n">
-        <v>71.34631813926337</v>
+        <v>88.37801185544566</v>
       </c>
       <c r="D26" t="n">
-        <v>17.05406743345007</v>
+        <v>34.08576114963231</v>
       </c>
       <c r="E26" t="n">
         <v>54.29225070581326</v>
@@ -1260,10 +1260,10 @@
         <v>23.41695409700751</v>
       </c>
       <c r="C27" t="n">
-        <v>76.66161736134227</v>
+        <v>69.34879879626797</v>
       </c>
       <c r="D27" t="n">
-        <v>20.31908169508977</v>
+        <v>13.0062631300152</v>
       </c>
       <c r="E27" t="n">
         <v>56.34253566625249</v>
@@ -1291,10 +1291,10 @@
         <v>54.79078757173561</v>
       </c>
       <c r="C28" t="n">
-        <v>58.3717185986206</v>
+        <v>55.71036424334256</v>
       </c>
       <c r="D28" t="n">
-        <v>7.179119110806737</v>
+        <v>4.517764755528603</v>
       </c>
       <c r="E28" t="n">
         <v>51.19259948781386</v>
@@ -1322,10 +1322,10 @@
         <v>51.65157223068612</v>
       </c>
       <c r="C29" t="n">
-        <v>196.96674184315</v>
+        <v>190.2666917046467</v>
       </c>
       <c r="D29" t="n">
-        <v>25.12650406213757</v>
+        <v>18.42645392363421</v>
       </c>
       <c r="E29" t="n">
         <v>171.8402377810123</v>
@@ -1353,10 +1353,10 @@
         <v>33.23192080432319</v>
       </c>
       <c r="C30" t="n">
-        <v>68.99726735364825</v>
+        <v>63.22384352504145</v>
       </c>
       <c r="D30" t="n">
-        <v>13.27110586746939</v>
+        <v>7.497682038862504</v>
       </c>
       <c r="E30" t="n">
         <v>55.72616148617894</v>
@@ -1384,10 +1384,10 @@
         <v>10.13161505062967</v>
       </c>
       <c r="C31" t="n">
-        <v>71.14167134139169</v>
+        <v>69.8647025646125</v>
       </c>
       <c r="D31" t="n">
-        <v>8.338862063791087</v>
+        <v>7.061893287011926</v>
       </c>
       <c r="E31" t="n">
         <v>62.80280927760071</v>
@@ -1415,10 +1415,10 @@
         <v>13.80881345161295</v>
       </c>
       <c r="C32" t="n">
-        <v>20.08465027070292</v>
+        <v>17.49108955688107</v>
       </c>
       <c r="D32" t="n">
-        <v>4.489027332171283</v>
+        <v>1.895466618349366</v>
       </c>
       <c r="E32" t="n">
         <v>15.59562293853169</v>
@@ -1446,10 +1446,10 @@
         <v>32.36077714132275</v>
       </c>
       <c r="C33" t="n">
-        <v>107.8838396743842</v>
+        <v>99.52386531570954</v>
       </c>
       <c r="D33" t="n">
-        <v>18.82406307980375</v>
+        <v>10.46408872112913</v>
       </c>
       <c r="E33" t="n">
         <v>89.05977659458009</v>
@@ -1477,10 +1477,10 @@
         <v>38.99438134435925</v>
       </c>
       <c r="C34" t="n">
-        <v>151.9907538482498</v>
+        <v>145.7929087768983</v>
       </c>
       <c r="D34" t="n">
-        <v>26.25849816336722</v>
+        <v>20.06065309201589</v>
       </c>
       <c r="E34" t="n">
         <v>125.7322556848826</v>
@@ -1508,10 +1508,10 @@
         <v>24.92726987785904</v>
       </c>
       <c r="C35" t="n">
-        <v>44.07745611946676</v>
+        <v>43.96739964255068</v>
       </c>
       <c r="D35" t="n">
-        <v>4.8906918335445</v>
+        <v>4.780635356628347</v>
       </c>
       <c r="E35" t="n">
         <v>39.18676428592234</v>
@@ -1539,10 +1539,10 @@
         <v>22.5815483367999</v>
       </c>
       <c r="C36" t="n">
-        <v>50.123356302476</v>
+        <v>45.53085768534857</v>
       </c>
       <c r="D36" t="n">
-        <v>9.874081691963982</v>
+        <v>5.281583074836819</v>
       </c>
       <c r="E36" t="n">
         <v>40.2492746105118</v>
@@ -1570,10 +1570,10 @@
         <v>27.89941322511557</v>
       </c>
       <c r="C37" t="n">
-        <v>20.99807058750797</v>
+        <v>19.65123610670828</v>
       </c>
       <c r="D37" t="n">
-        <v>3.731273854353825</v>
+        <v>2.384439373554106</v>
       </c>
       <c r="E37" t="n">
         <v>17.26679673315413</v>
@@ -1601,10 +1601,10 @@
         <v>49.13405460207678</v>
       </c>
       <c r="C38" t="n">
-        <v>46.85031021693825</v>
+        <v>45.10051721391826</v>
       </c>
       <c r="D38" t="n">
-        <v>5.6075239477809</v>
+        <v>3.857730944760764</v>
       </c>
       <c r="E38" t="n">
         <v>41.24278626915751</v>
@@ -1632,10 +1632,10 @@
         <v>41.05150043132295</v>
       </c>
       <c r="C39" t="n">
-        <v>92.75111705271379</v>
+        <v>87.07867503560531</v>
       </c>
       <c r="D39" t="n">
-        <v>16.7800852887136</v>
+        <v>11.10764327160515</v>
       </c>
       <c r="E39" t="n">
         <v>75.97103176400019</v>
@@ -1663,10 +1663,10 @@
         <v>38.98198825898191</v>
       </c>
       <c r="C40" t="n">
-        <v>53.21516247643582</v>
+        <v>48.08977013335183</v>
       </c>
       <c r="D40" t="n">
-        <v>10.65632961466042</v>
+        <v>5.530937271576509</v>
       </c>
       <c r="E40" t="n">
         <v>42.55883286177546</v>
@@ -1694,10 +1694,10 @@
         <v>21.53316810965194</v>
       </c>
       <c r="C41" t="n">
-        <v>48.93494326358779</v>
+        <v>48.00476824953135</v>
       </c>
       <c r="D41" t="n">
-        <v>7.521858064216178</v>
+        <v>6.591683050160187</v>
       </c>
       <c r="E41" t="n">
         <v>41.41308519937129</v>
@@ -1725,10 +1725,10 @@
         <v>11.42757655397756</v>
       </c>
       <c r="C42" t="n">
-        <v>32.74568226853118</v>
+        <v>32.09902297667693</v>
       </c>
       <c r="D42" t="n">
-        <v>4.105690768775577</v>
+        <v>3.459031476921247</v>
       </c>
       <c r="E42" t="n">
         <v>28.63999149975572</v>
@@ -1756,10 +1756,10 @@
         <v>23.01598922829499</v>
       </c>
       <c r="C43" t="n">
-        <v>70.66149189660931</v>
+        <v>67.04340374934132</v>
       </c>
       <c r="D43" t="n">
-        <v>7.681560900135334</v>
+        <v>4.063472752867128</v>
       </c>
       <c r="E43" t="n">
         <v>62.97993099647422</v>
@@ -1787,10 +1787,10 @@
         <v>87.1553790019391</v>
       </c>
       <c r="C44" t="n">
-        <v>116.1648819044016</v>
+        <v>105.3052184104982</v>
       </c>
       <c r="D44" t="n">
-        <v>23.08395505065983</v>
+        <v>12.22429155675636</v>
       </c>
       <c r="E44" t="n">
         <v>93.08092685374159</v>
@@ -1818,10 +1818,10 @@
         <v>9.429887758464357</v>
       </c>
       <c r="C45" t="n">
-        <v>14.30848021196943</v>
+        <v>12.84495941074148</v>
       </c>
       <c r="D45" t="n">
-        <v>3.228969748135051</v>
+        <v>1.765448946907162</v>
       </c>
       <c r="E45" t="n">
         <v>11.07951046383434</v>
@@ -1849,10 +1849,10 @@
         <v>20.68266150165245</v>
       </c>
       <c r="C46" t="n">
-        <v>28.20536135887886</v>
+        <v>27.85905107255654</v>
       </c>
       <c r="D46" t="n">
-        <v>1.971881552763135</v>
+        <v>1.625571266440792</v>
       </c>
       <c r="E46" t="n">
         <v>26.23347980611576</v>
@@ -1880,10 +1880,10 @@
         <v>12.29824065136684</v>
       </c>
       <c r="C47" t="n">
-        <v>4.971515574622869</v>
+        <v>4.607196448654674</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8886826245007255</v>
+        <v>0.5243634985325216</v>
       </c>
       <c r="E47" t="n">
         <v>4.082832950122159</v>
@@ -1911,10 +1911,10 @@
         <v>13.03741085203557</v>
       </c>
       <c r="C48" t="n">
-        <v>28.37055141351259</v>
+        <v>26.62102564419216</v>
       </c>
       <c r="D48" t="n">
-        <v>4.441164344526591</v>
+        <v>2.691638575206132</v>
       </c>
       <c r="E48" t="n">
         <v>23.92938706898602</v>
@@ -1942,10 +1942,10 @@
         <v>22.09889380777077</v>
       </c>
       <c r="C49" t="n">
-        <v>36.96450900202955</v>
+        <v>33.38746513947333</v>
       </c>
       <c r="D49" t="n">
-        <v>7.487232119632741</v>
+        <v>3.91018825707657</v>
       </c>
       <c r="E49" t="n">
         <v>29.4772768823968</v>
@@ -1973,10 +1973,10 @@
         <v>20.74357099544427</v>
       </c>
       <c r="C50" t="n">
-        <v>27.06981267115147</v>
+        <v>25.44325883016047</v>
       </c>
       <c r="D50" t="n">
-        <v>3.612902888003783</v>
+        <v>1.986349047012836</v>
       </c>
       <c r="E50" t="n">
         <v>23.45690978314757</v>
